--- a/data/raw/comunas_descripcion.xlsx
+++ b/data/raw/comunas_descripcion.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\streamlit_app_clusters_crimen\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE8602B-FD78-4479-B281-988B6E76F060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8168BC-2B85-4069-BB5E-4F3202D7292E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38505" yWindow="-1080" windowWidth="31815" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-1200" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="descripciones_comunas" sheetId="1" r:id="rId1"/>
+    <sheet name="documentacion_descripciones" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -127,6 +128,21 @@
     <t xml:space="preserve">preferencia por comuna del transporte informal;
 terminalitos
 </t>
+  </si>
+  <si>
+    <t>zona residencial</t>
+  </si>
+  <si>
+    <t>zona educativa</t>
+  </si>
+  <si>
+    <t>zona de turismo</t>
+  </si>
+  <si>
+    <t>alto trafico</t>
+  </si>
+  <si>
+    <t>alto nivel de comercio entre las 2 y 7pm</t>
   </si>
 </sst>
 </file>
@@ -462,7 +478,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,6 +499,246 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23714016-EEE3-4C64-9D9B-B88005A42014}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="1" t="s">
         <v>19</v>
       </c>

--- a/data/raw/comunas_descripcion.xlsx
+++ b/data/raw/comunas_descripcion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\streamlit_app_clusters_crimen\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8168BC-2B85-4069-BB5E-4F3202D7292E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61992D2-10B6-4EF0-8310-EE186AD959FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-1200" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19305" yWindow="-1080" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="descripciones_comunas" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -85,64 +85,119 @@
     <t>MUTIS</t>
   </si>
   <si>
-    <t>Paginas</t>
-  </si>
-  <si>
-    <t>palabras clave</t>
-  </si>
-  <si>
-    <t>preferencia por comuna del transporte informal</t>
-  </si>
-  <si>
-    <t>PLAN DE DESARROLLO MUNICIPAL DE BUCARAMANGA 2024-2027</t>
-  </si>
-  <si>
-    <t>Alta preferencia por transporte informal</t>
-  </si>
-  <si>
-    <t>Preferencia secundaria por transporte informal</t>
-  </si>
-  <si>
-    <t>Preferencia moderada por transporte informal</t>
-  </si>
-  <si>
-    <t>Preferencia leve por transporte informal</t>
-  </si>
-  <si>
-    <t>&lt;73&gt;</t>
-  </si>
-  <si>
-    <t>Refeferencias</t>
-  </si>
-  <si>
-    <t>Alta preferencia por transporte informal. 
-Terminales pequeños.</t>
-  </si>
-  <si>
-    <t>Terminales pequeños.</t>
-  </si>
-  <si>
-    <t>terminalitos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preferencia por comuna del transporte informal;
-terminalitos
+    <t>Ref 1</t>
+  </si>
+  <si>
+    <t>ref 2</t>
+  </si>
+  <si>
+    <t>PLAN DE DESARROLLO 2020-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Necesidades Básicas Insatisfechas pag 31 ref 1
 </t>
   </si>
   <si>
-    <t>zona residencial</t>
-  </si>
-  <si>
-    <t>zona educativa</t>
-  </si>
-  <si>
-    <t>zona de turismo</t>
-  </si>
-  <si>
-    <t>alto trafico</t>
-  </si>
-  <si>
-    <t>alto nivel de comercio entre las 2 y 7pm</t>
+    <t>mejores condiciones socioeconómicas en comparación con otras zonas de la ciudad.  pag 31 ref 1</t>
+  </si>
+  <si>
+    <t>representan zonas de bajo IPM rodeadas por zonas de alto IPM, lo que sugiere un riesgo latente de afectación por pobreza desde las áreas circundantes.</t>
+  </si>
+  <si>
+    <t>1. mejores condiciones socioeconómicas en comparación con otras zonas de la ciudad.  pag 31 ref 1</t>
+  </si>
+  <si>
+    <t>1. Mejores condiciones socioeconómicas en comparación con otras zonas de la ciudad.  pag 31 ref 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Necesidades Básicas Insatisfechas pag 31 ref 1.
+2. Fenómenos de amenaza de erosión,remoción en masa e inundaciones pag 11 ref 1
+</t>
+  </si>
+  <si>
+    <t>1. Fenómenos de amenaza de erosión,remoción en masa e inundaciones pag 11 ref 1</t>
+  </si>
+  <si>
+    <t>SUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.  Necesidades Básicas Insatisfechas pag 31 ref 1.
+2.La mayor concentración de canchas con 33.   pág. 54 Ref 1.
+3. Alta concentración de ocupaciones informales Pag 197 Ref 2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Necesidades Básicas Insatisfechas pag 31 ref 1.
+2. Alta concentración de ocupaciones informales Pag 197 Ref 2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Menos canchas deportivas ,solo 2. pág. 54 Ref 1.
+2. Zona mas comercial. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Necesidades Básicas Insatisfechas pag 31 ref 1.
+2. Preferencia transporte informal pag 73 ref 2
+</t>
+  </si>
+  <si>
+    <t>1. Preferencia transporte informal pag 73 ref 2</t>
+  </si>
+  <si>
+    <t>1. mejores condiciones socioeconómicas en comparación con otras zonas de la ciudad.  pag 31 ref 1.
+2. Preferencia transprote informal pag 73 ref 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Necesidades Básicas Insatisfechas.
+2. Alta concentración de ocupaciones informales.
+</t>
+  </si>
+  <si>
+    <t>1. Preferencia transporte informal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Necesidades Básicas Insatisfechas.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Necesidades Básicas Insatisfechas.
+2. Preferencia transporte informal.
+</t>
+  </si>
+  <si>
+    <t>1. Mejores condiciones socioeconómicas en comparación con otras zonas de la ciudad.</t>
+  </si>
+  <si>
+    <t>1. Fenómenos de amenaza de erosión,remoción en masa e inundaciones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Necesidades Básicas Insatisfechas.
+2. Fenómenos de amenaza de erosión,remoción en masa e inundaciones.
+</t>
+  </si>
+  <si>
+    <t>1. Representan zonas de bajo IPM rodeadas por zonas de alto IPM, lo que sugiere un riesgo latente de afectación por pobreza desde las áreas circundantes.</t>
+  </si>
+  <si>
+    <t>1. Mejores condiciones socioeconómicas en comparación con otras zonas de la ciudad. 
+2. Preferencia transporte informal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Mejores condiciones socioeconómicas en comparación con otras zonas de la ciudad. </t>
+  </si>
+  <si>
+    <t>1. Mejores condiciones socioeconómicas en comparación con otras zonas de la ciudad. 
+2. Preferencia transprote informal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Menos canchas deportivas , solo 2.
+2. Zona más comercial. </t>
+  </si>
+  <si>
+    <t>1.  Necesidades Básicas Insatisfechas.
+2. La mayor concentración de canchas con 33.
+3. Alta concentración de ocupaciones informales</t>
   </si>
 </sst>
 </file>
@@ -186,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -194,6 +249,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,13 +536,13 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C1" sqref="B1:C1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="126.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="55.77734375" bestFit="1" customWidth="1"/>
   </cols>
@@ -503,27 +561,27 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>30</v>
+      <c r="C2" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
+      <c r="C3" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -535,31 +593,31 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
+      <c r="C5" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
+      <c r="C6" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -571,7 +629,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -583,19 +641,19 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
-        <v>36</v>
+      <c r="C9" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -607,19 +665,19 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
+      <c r="C11" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="D11" s="2"/>
     </row>
@@ -628,10 +686,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -643,31 +701,31 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
-        <v>23</v>
+      <c r="C14" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
-        <v>37</v>
+      <c r="C15" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D15" s="2"/>
     </row>
@@ -679,20 +737,20 @@
         <v>16</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
-        <v>23</v>
+      <c r="C17" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D17" s="2"/>
     </row>
@@ -704,7 +762,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D18" s="2"/>
     </row>
@@ -718,13 +776,14 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C18" sqref="C2:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="126.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="55.77734375" bestFit="1" customWidth="1"/>
   </cols>
@@ -745,46 +804,33 @@
       <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -794,48 +840,33 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
+      <c r="C6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -844,6 +875,9 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -853,14 +887,20 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -871,41 +911,34 @@
       <c r="B10" t="s">
         <v>11</v>
       </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -917,45 +950,33 @@
       <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -963,33 +984,26 @@
         <v>16</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -997,14 +1011,9 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" t="s">
-        <v>21</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
